--- a/threshold_ac/test.xlsx
+++ b/threshold_ac/test.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxu/PycharmProjects/Academic_Tools/threshold_ac/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2961171D-496B-A14A-A575-F8EC0E4C0E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="3480" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Pareto_Coefficient</t>
   </si>
@@ -43,12 +34,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,30 +47,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -109,36 +87,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +142,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -210,7 +176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,10 +210,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,25 +385,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -448,235 +405,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>2011</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.68881190566316775</v>
+        <v>0.9107417439637168</v>
+      </c>
+      <c r="B2">
+        <v>0.1246957075951587</v>
       </c>
       <c r="C2">
-        <v>3.3445719937602071E-2</v>
+        <v>4.808755684149213E-08</v>
       </c>
       <c r="D2">
-        <v>2.036846039369571E-60</v>
-      </c>
-      <c r="E2" s="3">
-        <v>7.5642986110226504E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>9.8325096020655987E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2012</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.77012305239593004</v>
-      </c>
-      <c r="C3">
-        <v>3.1042093823382241E-2</v>
-      </c>
-      <c r="D3">
-        <v>2.9523053654053463E-76</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6.8288997432700116E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5.0015175909948363E-25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.73953680811415357</v>
-      </c>
-      <c r="C4">
-        <v>3.1265489572025532E-2</v>
-      </c>
-      <c r="D4">
-        <v>5.5030223180519892E-72</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7.4317337254576232E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.7626873800225999E-20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>2014</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.76771339681743112</v>
-      </c>
-      <c r="C5">
-        <v>3.1306557543552938E-2</v>
-      </c>
-      <c r="D5">
-        <v>3.3369660828902411E-75</v>
-      </c>
-      <c r="E5" s="3">
-        <v>7.1679802378803295E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4.7312929389067483E-23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.76389871637241302</v>
-      </c>
-      <c r="C6">
-        <v>3.1260577042778563E-2</v>
-      </c>
-      <c r="D6">
-        <v>6.9190694056263823E-75</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7.1454861508101403E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5.5297509330385509E-23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.76166908698333569</v>
-      </c>
-      <c r="C7">
-        <v>3.1251412208832527E-2</v>
-      </c>
-      <c r="D7">
-        <v>1.193230385361538E-74</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7.1903809351197945E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.1980078433825979E-22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.76168904357720746</v>
-      </c>
-      <c r="C8">
-        <v>3.1270220566778917E-2</v>
-      </c>
-      <c r="D8">
-        <v>1.3441786263366709E-74</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7.253503670563248E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.4707296457115631E-22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.7635796242563212</v>
-      </c>
-      <c r="C9">
-        <v>3.1323761951943828E-2</v>
-      </c>
-      <c r="D9">
-        <v>1.1465340709392331E-74</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7.3851248841559136E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8.7556506073302221E-22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.76191609180687536</v>
-      </c>
-      <c r="C10">
-        <v>3.1329475790298933E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.8695900306031819E-74</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7.4047404727512658E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.2913195187712781E-21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.77563621393591065</v>
-      </c>
-      <c r="C11">
-        <v>3.0767878519580402E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.0126912285524519E-77</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7.3026051179105933E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>9.5677558932406988E-23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.87521496401588028</v>
-      </c>
-      <c r="C12">
-        <v>3.0558339656461701E-2</v>
-      </c>
-      <c r="D12">
-        <v>6.0744743157102844E-90</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6.7446420780662375E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.5578112729436029E-31</v>
+        <v>0.1863605579555332</v>
+      </c>
+      <c r="E2">
+        <v>3.472664855985813E-05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>